--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Effective_Federal_Funds_Rate_FEDFUNDS.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Effective_Federal_Funds_Rate_FEDFUNDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1320">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1954-07-01</t>
@@ -2446,6 +2446,45 @@
     <t>2021-07-01</t>
   </si>
   <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
     <t>0.80</t>
   </si>
   <si>
@@ -3926,6 +3965,15 @@
   </si>
   <si>
     <t>0.06</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>1.21</t>
   </si>
 </sst>
 </file>
@@ -4283,7 +4331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E806"/>
+  <dimension ref="A1:E819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4320,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4337,7 +4385,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4354,7 +4402,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4371,7 +4419,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4388,7 +4436,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4405,7 +4453,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4422,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4439,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4456,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4473,7 +4521,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4490,7 +4538,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4507,7 +4555,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4524,7 +4572,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4541,7 +4589,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4558,7 +4606,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4575,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4592,7 +4640,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4609,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4626,7 +4674,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4643,7 +4691,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4660,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4677,7 +4725,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4694,7 +4742,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4711,7 +4759,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4728,7 +4776,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4745,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4762,7 +4810,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4779,7 +4827,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4796,7 +4844,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4813,7 +4861,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4830,7 +4878,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4847,7 +4895,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4864,7 +4912,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4881,7 +4929,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4898,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4915,7 +4963,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4932,7 +4980,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4949,7 +4997,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4966,7 +5014,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4983,7 +5031,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5000,7 +5048,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5017,7 +5065,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5034,7 +5082,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5051,7 +5099,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5068,7 +5116,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5085,7 +5133,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5102,7 +5150,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5119,7 +5167,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5136,7 +5184,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5153,7 +5201,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5170,7 +5218,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5187,7 +5235,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5204,7 +5252,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5221,7 +5269,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5238,7 +5286,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5255,7 +5303,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5272,7 +5320,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5289,7 +5337,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5306,7 +5354,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5323,7 +5371,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5340,7 +5388,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5357,7 +5405,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5374,7 +5422,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5391,7 +5439,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5408,7 +5456,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5425,7 +5473,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5442,7 +5490,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5459,7 +5507,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5476,7 +5524,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5493,7 +5541,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5510,7 +5558,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5527,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5544,7 +5592,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5561,7 +5609,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5578,7 +5626,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5595,7 +5643,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5612,7 +5660,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5629,7 +5677,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5646,7 +5694,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5663,7 +5711,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5680,7 +5728,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5697,7 +5745,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5714,7 +5762,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5731,7 +5779,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5748,7 +5796,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5765,7 +5813,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5782,7 +5830,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5799,7 +5847,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5816,7 +5864,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5833,7 +5881,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5850,7 +5898,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5867,7 +5915,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5884,7 +5932,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5901,7 +5949,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5918,7 +5966,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5935,7 +5983,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5952,7 +6000,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5969,7 +6017,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5986,7 +6034,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -6003,7 +6051,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -6020,7 +6068,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -6037,7 +6085,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -6054,7 +6102,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -6071,7 +6119,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -6088,7 +6136,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -6105,7 +6153,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -6122,7 +6170,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -6139,7 +6187,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -6156,7 +6204,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -6173,7 +6221,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -6190,7 +6238,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -6207,7 +6255,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -6224,7 +6272,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -6241,7 +6289,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -6258,7 +6306,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6275,7 +6323,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -6292,7 +6340,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6309,7 +6357,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6326,7 +6374,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6343,7 +6391,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6360,7 +6408,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6377,7 +6425,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6394,7 +6442,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6411,7 +6459,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6428,7 +6476,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -6445,7 +6493,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6462,7 +6510,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6479,7 +6527,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -6496,7 +6544,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6513,7 +6561,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6530,7 +6578,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6547,7 +6595,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6564,7 +6612,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6581,7 +6629,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -6598,7 +6646,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6615,7 +6663,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6632,7 +6680,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6649,7 +6697,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6666,7 +6714,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6683,7 +6731,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6700,7 +6748,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6717,7 +6765,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6734,7 +6782,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6751,7 +6799,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6768,7 +6816,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6785,7 +6833,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6802,7 +6850,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6819,7 +6867,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6836,7 +6884,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6853,7 +6901,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6870,7 +6918,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6887,7 +6935,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6904,7 +6952,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6921,7 +6969,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6938,7 +6986,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6955,7 +7003,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6972,7 +7020,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6989,7 +7037,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -7006,7 +7054,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -7023,7 +7071,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -7040,7 +7088,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -7057,7 +7105,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -7074,7 +7122,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -7091,7 +7139,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -7108,7 +7156,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -7125,7 +7173,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -7142,7 +7190,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -7159,7 +7207,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -7176,7 +7224,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -7193,7 +7241,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -7210,7 +7258,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -7227,7 +7275,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -7244,7 +7292,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -7261,7 +7309,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -7278,7 +7326,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -7295,7 +7343,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -7312,7 +7360,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -7329,7 +7377,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -7346,7 +7394,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7363,7 +7411,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -7380,7 +7428,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -7397,7 +7445,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -7414,7 +7462,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -7431,7 +7479,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -7448,7 +7496,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -7465,7 +7513,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7482,7 +7530,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -7499,7 +7547,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -7516,7 +7564,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -7533,7 +7581,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -7550,7 +7598,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -7567,7 +7615,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7584,7 +7632,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7601,7 +7649,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7618,7 +7666,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7635,7 +7683,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7652,7 +7700,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7669,7 +7717,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7686,7 +7734,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7703,7 +7751,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7720,7 +7768,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7737,7 +7785,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7754,7 +7802,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7771,7 +7819,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7788,7 +7836,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7805,7 +7853,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7822,7 +7870,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7839,7 +7887,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7856,7 +7904,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7873,7 +7921,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7890,7 +7938,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7907,7 +7955,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7924,7 +7972,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7941,7 +7989,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7958,7 +8006,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7975,7 +8023,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7992,7 +8040,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -8009,7 +8057,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -8026,7 +8074,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -8043,7 +8091,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -8060,7 +8108,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -8077,7 +8125,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -8094,7 +8142,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -8111,7 +8159,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -8128,7 +8176,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -8145,7 +8193,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -8162,7 +8210,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -8179,7 +8227,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -8196,7 +8244,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -8213,7 +8261,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -8230,7 +8278,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -8247,7 +8295,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -8264,7 +8312,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -8281,7 +8329,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -8298,7 +8346,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -8315,7 +8363,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -8332,7 +8380,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -8349,7 +8397,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -8366,7 +8414,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -8383,7 +8431,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -8400,7 +8448,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -8417,7 +8465,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -8434,7 +8482,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -8451,7 +8499,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -8468,7 +8516,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -8485,7 +8533,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -8502,7 +8550,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -8519,7 +8567,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -8536,7 +8584,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -8553,7 +8601,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -8570,7 +8618,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -8587,7 +8635,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -8604,7 +8652,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -8621,7 +8669,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -8638,7 +8686,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -8655,7 +8703,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8672,7 +8720,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8689,7 +8737,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -8706,7 +8754,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -8723,7 +8771,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -8740,7 +8788,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -8757,7 +8805,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -8774,7 +8822,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -8791,7 +8839,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -8808,7 +8856,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8825,7 +8873,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -8842,7 +8890,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8859,7 +8907,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8876,7 +8924,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8893,7 +8941,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8910,7 +8958,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8927,7 +8975,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8944,7 +8992,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8961,7 +9009,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8978,7 +9026,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8995,7 +9043,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -9012,7 +9060,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -9029,7 +9077,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -9046,7 +9094,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -9063,7 +9111,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -9080,7 +9128,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -9097,7 +9145,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -9114,7 +9162,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -9131,7 +9179,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -9148,7 +9196,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -9165,7 +9213,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -9182,7 +9230,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -9199,7 +9247,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -9216,7 +9264,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -9233,7 +9281,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -9250,7 +9298,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -9267,7 +9315,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -9284,7 +9332,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -9301,7 +9349,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -9318,7 +9366,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -9335,7 +9383,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -9352,7 +9400,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -9369,7 +9417,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -9386,7 +9434,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -9403,7 +9451,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -9420,7 +9468,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -9437,7 +9485,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -9454,7 +9502,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -9471,7 +9519,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -9488,7 +9536,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -9505,7 +9553,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -9522,7 +9570,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -9539,7 +9587,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -9556,7 +9604,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -9573,7 +9621,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -9590,7 +9638,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -9607,7 +9655,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -9624,7 +9672,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -9641,7 +9689,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -9658,7 +9706,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -9675,7 +9723,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -9692,7 +9740,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -9709,7 +9757,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -9726,7 +9774,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -9743,7 +9791,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -9760,7 +9808,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -9777,7 +9825,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -9794,7 +9842,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -9811,7 +9859,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -9828,7 +9876,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -9845,7 +9893,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -9862,7 +9910,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9879,7 +9927,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9896,7 +9944,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9913,7 +9961,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9930,7 +9978,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9947,7 +9995,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9964,7 +10012,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9981,7 +10029,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9998,7 +10046,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -10015,7 +10063,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -10032,7 +10080,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -10049,7 +10097,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -10066,7 +10114,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -10083,7 +10131,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -10100,7 +10148,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -10117,7 +10165,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -10134,7 +10182,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -10151,7 +10199,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -10168,7 +10216,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -10185,7 +10233,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -10202,7 +10250,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -10219,7 +10267,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -10236,7 +10284,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -10253,7 +10301,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -10270,7 +10318,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -10287,7 +10335,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -10304,7 +10352,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -10321,7 +10369,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -10338,7 +10386,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -10355,7 +10403,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -10372,7 +10420,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -10389,7 +10437,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -10406,7 +10454,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -10423,7 +10471,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -10440,7 +10488,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -10457,7 +10505,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -10474,7 +10522,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -10491,7 +10539,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -10508,7 +10556,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -10525,7 +10573,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -10542,7 +10590,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -10559,7 +10607,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -10576,7 +10624,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -10593,7 +10641,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -10610,7 +10658,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -10627,7 +10675,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -10644,7 +10692,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -10661,7 +10709,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -10678,7 +10726,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -10695,7 +10743,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -10712,7 +10760,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -10729,7 +10777,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10746,7 +10794,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -10763,7 +10811,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -10780,7 +10828,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -10797,7 +10845,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10814,7 +10862,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -10831,7 +10879,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10848,7 +10896,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10865,7 +10913,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10882,7 +10930,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10899,7 +10947,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10916,7 +10964,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10933,7 +10981,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10950,7 +10998,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10967,7 +11015,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -10984,7 +11032,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -11001,7 +11049,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -11018,7 +11066,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -11035,7 +11083,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -11052,7 +11100,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -11069,7 +11117,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -11086,7 +11134,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -11103,7 +11151,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -11120,7 +11168,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -11137,7 +11185,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -11154,7 +11202,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -11171,7 +11219,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -11188,7 +11236,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -11205,7 +11253,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -11222,7 +11270,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -11239,7 +11287,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -11256,7 +11304,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -11273,7 +11321,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -11290,7 +11338,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -11307,7 +11355,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -11324,7 +11372,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -11341,7 +11389,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -11358,7 +11406,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -11375,7 +11423,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -11392,7 +11440,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -11409,7 +11457,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -11426,7 +11474,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -11443,7 +11491,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -11460,7 +11508,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -11477,7 +11525,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -11494,7 +11542,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -11511,7 +11559,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -11528,7 +11576,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -11545,7 +11593,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -11562,7 +11610,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -11579,7 +11627,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -11596,7 +11644,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -11613,7 +11661,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -11630,7 +11678,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -11647,7 +11695,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -11664,7 +11712,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -11681,7 +11729,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -11698,7 +11746,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -11715,7 +11763,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -11732,7 +11780,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -11749,7 +11797,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -11766,7 +11814,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -11783,7 +11831,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -11800,7 +11848,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -11817,7 +11865,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -11834,7 +11882,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -11851,7 +11899,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -11868,7 +11916,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -11885,7 +11933,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -11902,7 +11950,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -11919,7 +11967,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11936,7 +11984,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11953,7 +12001,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11970,7 +12018,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11987,7 +12035,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -12004,7 +12052,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -12021,7 +12069,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -12038,7 +12086,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -12055,7 +12103,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -12072,7 +12120,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -12089,7 +12137,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -12106,7 +12154,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -12123,7 +12171,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -12140,7 +12188,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -12157,7 +12205,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -12174,7 +12222,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -12191,7 +12239,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -12208,7 +12256,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -12225,7 +12273,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -12242,7 +12290,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -12259,7 +12307,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -12276,7 +12324,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>1182</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -12293,7 +12341,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -12310,7 +12358,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -12327,7 +12375,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -12344,7 +12392,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -12361,7 +12409,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -12378,7 +12426,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -12395,7 +12443,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -12412,7 +12460,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -12429,7 +12477,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>1185</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -12446,7 +12494,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -12463,7 +12511,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -12480,7 +12528,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -12497,7 +12545,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -12514,7 +12562,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -12531,7 +12579,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -12548,7 +12596,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -12565,7 +12613,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -12582,7 +12630,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -12599,7 +12647,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -12616,7 +12664,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -12633,7 +12681,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>1193</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -12650,7 +12698,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>1194</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -12667,7 +12715,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>1195</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -12684,7 +12732,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -12701,7 +12749,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>1196</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -12718,7 +12766,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -12735,7 +12783,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -12752,7 +12800,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -12769,7 +12817,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -12786,7 +12834,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -12803,7 +12851,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -12820,7 +12868,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -12837,7 +12885,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -12854,7 +12902,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -12871,7 +12919,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>1200</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -12888,7 +12936,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -12905,7 +12953,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -12922,7 +12970,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -12939,7 +12987,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -12956,7 +13004,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -12973,7 +13021,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -12990,7 +13038,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -13007,7 +13055,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>1201</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -13024,7 +13072,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -13041,7 +13089,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -13058,7 +13106,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -13075,7 +13123,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -13092,7 +13140,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -13109,7 +13157,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -13126,7 +13174,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -13143,7 +13191,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -13160,7 +13208,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -13177,7 +13225,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -13194,7 +13242,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -13211,7 +13259,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -13228,7 +13276,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -13245,7 +13293,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -13262,7 +13310,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -13279,7 +13327,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -13296,7 +13344,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -13313,7 +13361,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -13330,7 +13378,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -13347,7 +13395,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -13364,7 +13412,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -13381,7 +13429,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -13398,7 +13446,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -13415,7 +13463,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -13432,7 +13480,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -13449,7 +13497,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -13466,7 +13514,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -13483,7 +13531,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -13500,7 +13548,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>1208</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -13517,7 +13565,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -13534,7 +13582,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -13551,7 +13599,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -13568,7 +13616,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -13585,7 +13633,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -13602,7 +13650,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -13619,7 +13667,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -13636,7 +13684,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -13653,7 +13701,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -13670,7 +13718,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>1210</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -13687,7 +13735,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>1211</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -13704,7 +13752,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>1212</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -13721,7 +13769,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -13738,7 +13786,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>1214</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -13755,7 +13803,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -13772,7 +13820,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -13789,7 +13837,7 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -13806,7 +13854,7 @@
         <v>563</v>
       </c>
       <c r="E560" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -13823,7 +13871,7 @@
         <v>564</v>
       </c>
       <c r="E561" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -13840,7 +13888,7 @@
         <v>565</v>
       </c>
       <c r="E562" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -13857,7 +13905,7 @@
         <v>566</v>
       </c>
       <c r="E563" t="s">
-        <v>1216</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -13874,7 +13922,7 @@
         <v>567</v>
       </c>
       <c r="E564" t="s">
-        <v>1217</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -13891,7 +13939,7 @@
         <v>568</v>
       </c>
       <c r="E565" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -13908,7 +13956,7 @@
         <v>569</v>
       </c>
       <c r="E566" t="s">
-        <v>1218</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -13925,7 +13973,7 @@
         <v>570</v>
       </c>
       <c r="E567" t="s">
-        <v>1219</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -13942,7 +13990,7 @@
         <v>571</v>
       </c>
       <c r="E568" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -13959,7 +14007,7 @@
         <v>572</v>
       </c>
       <c r="E569" t="s">
-        <v>1220</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -13976,7 +14024,7 @@
         <v>573</v>
       </c>
       <c r="E570" t="s">
-        <v>1221</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -13993,7 +14041,7 @@
         <v>574</v>
       </c>
       <c r="E571" t="s">
-        <v>1222</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -14010,7 +14058,7 @@
         <v>575</v>
       </c>
       <c r="E572" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -14027,7 +14075,7 @@
         <v>576</v>
       </c>
       <c r="E573" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -14044,7 +14092,7 @@
         <v>577</v>
       </c>
       <c r="E574" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -14061,7 +14109,7 @@
         <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -14078,7 +14126,7 @@
         <v>579</v>
       </c>
       <c r="E576" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -14095,7 +14143,7 @@
         <v>580</v>
       </c>
       <c r="E577" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -14112,7 +14160,7 @@
         <v>581</v>
       </c>
       <c r="E578" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -14129,7 +14177,7 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -14146,7 +14194,7 @@
         <v>583</v>
       </c>
       <c r="E580" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -14163,7 +14211,7 @@
         <v>584</v>
       </c>
       <c r="E581" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -14180,7 +14228,7 @@
         <v>585</v>
       </c>
       <c r="E582" t="s">
-        <v>1225</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -14197,7 +14245,7 @@
         <v>586</v>
       </c>
       <c r="E583" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -14214,7 +14262,7 @@
         <v>587</v>
       </c>
       <c r="E584" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -14231,7 +14279,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -14248,7 +14296,7 @@
         <v>589</v>
       </c>
       <c r="E586" t="s">
-        <v>1227</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -14265,7 +14313,7 @@
         <v>590</v>
       </c>
       <c r="E587" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -14282,7 +14330,7 @@
         <v>591</v>
       </c>
       <c r="E588" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -14299,7 +14347,7 @@
         <v>592</v>
       </c>
       <c r="E589" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -14316,7 +14364,7 @@
         <v>593</v>
       </c>
       <c r="E590" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -14333,7 +14381,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -14350,7 +14398,7 @@
         <v>595</v>
       </c>
       <c r="E592" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -14367,7 +14415,7 @@
         <v>596</v>
       </c>
       <c r="E593" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -14384,7 +14432,7 @@
         <v>597</v>
       </c>
       <c r="E594" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -14401,7 +14449,7 @@
         <v>598</v>
       </c>
       <c r="E595" t="s">
-        <v>1231</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -14418,7 +14466,7 @@
         <v>599</v>
       </c>
       <c r="E596" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -14435,7 +14483,7 @@
         <v>600</v>
       </c>
       <c r="E597" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -14452,7 +14500,7 @@
         <v>601</v>
       </c>
       <c r="E598" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -14469,7 +14517,7 @@
         <v>602</v>
       </c>
       <c r="E599" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -14486,7 +14534,7 @@
         <v>603</v>
       </c>
       <c r="E600" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -14503,7 +14551,7 @@
         <v>604</v>
       </c>
       <c r="E601" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -14520,7 +14568,7 @@
         <v>605</v>
       </c>
       <c r="E602" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -14537,7 +14585,7 @@
         <v>606</v>
       </c>
       <c r="E603" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -14554,7 +14602,7 @@
         <v>607</v>
       </c>
       <c r="E604" t="s">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -14571,7 +14619,7 @@
         <v>608</v>
       </c>
       <c r="E605" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -14588,7 +14636,7 @@
         <v>609</v>
       </c>
       <c r="E606" t="s">
-        <v>1233</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -14605,7 +14653,7 @@
         <v>610</v>
       </c>
       <c r="E607" t="s">
-        <v>1234</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -14622,7 +14670,7 @@
         <v>611</v>
       </c>
       <c r="E608" t="s">
-        <v>1235</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -14639,7 +14687,7 @@
         <v>612</v>
       </c>
       <c r="E609" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -14656,7 +14704,7 @@
         <v>613</v>
       </c>
       <c r="E610" t="s">
-        <v>1236</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -14673,7 +14721,7 @@
         <v>614</v>
       </c>
       <c r="E611" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -14690,7 +14738,7 @@
         <v>615</v>
       </c>
       <c r="E612" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -14707,7 +14755,7 @@
         <v>616</v>
       </c>
       <c r="E613" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -14724,7 +14772,7 @@
         <v>617</v>
       </c>
       <c r="E614" t="s">
-        <v>1238</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -14741,7 +14789,7 @@
         <v>618</v>
       </c>
       <c r="E615" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -14758,7 +14806,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>1239</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -14775,7 +14823,7 @@
         <v>620</v>
       </c>
       <c r="E617" t="s">
-        <v>1240</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -14792,7 +14840,7 @@
         <v>621</v>
       </c>
       <c r="E618" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -14809,7 +14857,7 @@
         <v>622</v>
       </c>
       <c r="E619" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -14826,7 +14874,7 @@
         <v>623</v>
       </c>
       <c r="E620" t="s">
-        <v>1241</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -14843,7 +14891,7 @@
         <v>624</v>
       </c>
       <c r="E621" t="s">
-        <v>1242</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -14860,7 +14908,7 @@
         <v>625</v>
       </c>
       <c r="E622" t="s">
-        <v>1243</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -14877,7 +14925,7 @@
         <v>626</v>
       </c>
       <c r="E623" t="s">
-        <v>1244</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -14894,7 +14942,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -14911,7 +14959,7 @@
         <v>628</v>
       </c>
       <c r="E625" t="s">
-        <v>1208</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -14928,7 +14976,7 @@
         <v>629</v>
       </c>
       <c r="E626" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -14945,7 +14993,7 @@
         <v>630</v>
       </c>
       <c r="E627" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -14962,7 +15010,7 @@
         <v>631</v>
       </c>
       <c r="E628" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -14979,7 +15027,7 @@
         <v>632</v>
       </c>
       <c r="E629" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -14996,7 +15044,7 @@
         <v>633</v>
       </c>
       <c r="E630" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -15013,7 +15061,7 @@
         <v>634</v>
       </c>
       <c r="E631" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -15030,7 +15078,7 @@
         <v>635</v>
       </c>
       <c r="E632" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -15047,7 +15095,7 @@
         <v>636</v>
       </c>
       <c r="E633" t="s">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -15064,7 +15112,7 @@
         <v>637</v>
       </c>
       <c r="E634" t="s">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -15081,7 +15129,7 @@
         <v>638</v>
       </c>
       <c r="E635" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -15098,7 +15146,7 @@
         <v>639</v>
       </c>
       <c r="E636" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -15115,7 +15163,7 @@
         <v>640</v>
       </c>
       <c r="E637" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -15132,7 +15180,7 @@
         <v>641</v>
       </c>
       <c r="E638" t="s">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -15149,7 +15197,7 @@
         <v>642</v>
       </c>
       <c r="E639" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -15166,7 +15214,7 @@
         <v>643</v>
       </c>
       <c r="E640" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -15183,7 +15231,7 @@
         <v>644</v>
       </c>
       <c r="E641" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -15200,7 +15248,7 @@
         <v>645</v>
       </c>
       <c r="E642" t="s">
-        <v>1242</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -15217,7 +15265,7 @@
         <v>646</v>
       </c>
       <c r="E643" t="s">
-        <v>1246</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -15234,7 +15282,7 @@
         <v>647</v>
       </c>
       <c r="E644" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -15251,7 +15299,7 @@
         <v>648</v>
       </c>
       <c r="E645" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -15268,7 +15316,7 @@
         <v>649</v>
       </c>
       <c r="E646" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -15285,7 +15333,7 @@
         <v>650</v>
       </c>
       <c r="E647" t="s">
-        <v>1235</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -15302,7 +15350,7 @@
         <v>651</v>
       </c>
       <c r="E648" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -15319,7 +15367,7 @@
         <v>652</v>
       </c>
       <c r="E649" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -15336,7 +15384,7 @@
         <v>653</v>
       </c>
       <c r="E650" t="s">
-        <v>1247</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -15353,7 +15401,7 @@
         <v>654</v>
       </c>
       <c r="E651" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -15370,7 +15418,7 @@
         <v>655</v>
       </c>
       <c r="E652" t="s">
-        <v>1248</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -15387,7 +15435,7 @@
         <v>656</v>
       </c>
       <c r="E653" t="s">
-        <v>1249</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -15404,7 +15452,7 @@
         <v>657</v>
       </c>
       <c r="E654" t="s">
-        <v>1250</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -15421,7 +15469,7 @@
         <v>658</v>
       </c>
       <c r="E655" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -15438,7 +15486,7 @@
         <v>659</v>
       </c>
       <c r="E656" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -15455,7 +15503,7 @@
         <v>660</v>
       </c>
       <c r="E657" t="s">
-        <v>1253</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -15472,7 +15520,7 @@
         <v>661</v>
       </c>
       <c r="E658" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -15489,7 +15537,7 @@
         <v>662</v>
       </c>
       <c r="E659" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -15506,7 +15554,7 @@
         <v>663</v>
       </c>
       <c r="E660" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -15523,7 +15571,7 @@
         <v>664</v>
       </c>
       <c r="E661" t="s">
-        <v>1255</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -15540,7 +15588,7 @@
         <v>665</v>
       </c>
       <c r="E662" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -15557,7 +15605,7 @@
         <v>666</v>
       </c>
       <c r="E663" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -15574,7 +15622,7 @@
         <v>667</v>
       </c>
       <c r="E664" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -15591,7 +15639,7 @@
         <v>668</v>
       </c>
       <c r="E665" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -15608,7 +15656,7 @@
         <v>669</v>
       </c>
       <c r="E666" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -15625,7 +15673,7 @@
         <v>670</v>
       </c>
       <c r="E667" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -15642,7 +15690,7 @@
         <v>671</v>
       </c>
       <c r="E668" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -15659,7 +15707,7 @@
         <v>672</v>
       </c>
       <c r="E669" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -15676,7 +15724,7 @@
         <v>673</v>
       </c>
       <c r="E670" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -15693,7 +15741,7 @@
         <v>674</v>
       </c>
       <c r="E671" t="s">
-        <v>1259</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -15710,7 +15758,7 @@
         <v>675</v>
       </c>
       <c r="E672" t="s">
-        <v>1259</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -15727,7 +15775,7 @@
         <v>676</v>
       </c>
       <c r="E673" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -15744,7 +15792,7 @@
         <v>677</v>
       </c>
       <c r="E674" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -15761,7 +15809,7 @@
         <v>678</v>
       </c>
       <c r="E675" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -15778,7 +15826,7 @@
         <v>679</v>
       </c>
       <c r="E676" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -15795,7 +15843,7 @@
         <v>680</v>
       </c>
       <c r="E677" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -15812,7 +15860,7 @@
         <v>681</v>
       </c>
       <c r="E678" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -15829,7 +15877,7 @@
         <v>682</v>
       </c>
       <c r="E679" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -15846,7 +15894,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -15863,7 +15911,7 @@
         <v>684</v>
       </c>
       <c r="E681" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -15880,7 +15928,7 @@
         <v>685</v>
       </c>
       <c r="E682" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -15897,7 +15945,7 @@
         <v>686</v>
       </c>
       <c r="E683" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -15914,7 +15962,7 @@
         <v>687</v>
       </c>
       <c r="E684" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -15931,7 +15979,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -15948,7 +15996,7 @@
         <v>689</v>
       </c>
       <c r="E686" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -15965,7 +16013,7 @@
         <v>690</v>
       </c>
       <c r="E687" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -15982,7 +16030,7 @@
         <v>691</v>
       </c>
       <c r="E688" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -15999,7 +16047,7 @@
         <v>692</v>
       </c>
       <c r="E689" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -16016,7 +16064,7 @@
         <v>693</v>
       </c>
       <c r="E690" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -16033,7 +16081,7 @@
         <v>694</v>
       </c>
       <c r="E691" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -16050,7 +16098,7 @@
         <v>695</v>
       </c>
       <c r="E692" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -16067,7 +16115,7 @@
         <v>696</v>
       </c>
       <c r="E693" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -16084,7 +16132,7 @@
         <v>697</v>
       </c>
       <c r="E694" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -16101,7 +16149,7 @@
         <v>698</v>
       </c>
       <c r="E695" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -16118,7 +16166,7 @@
         <v>699</v>
       </c>
       <c r="E696" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -16135,7 +16183,7 @@
         <v>700</v>
       </c>
       <c r="E697" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -16152,7 +16200,7 @@
         <v>701</v>
       </c>
       <c r="E698" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -16169,7 +16217,7 @@
         <v>702</v>
       </c>
       <c r="E699" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -16186,7 +16234,7 @@
         <v>703</v>
       </c>
       <c r="E700" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -16203,7 +16251,7 @@
         <v>704</v>
       </c>
       <c r="E701" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -16220,7 +16268,7 @@
         <v>705</v>
       </c>
       <c r="E702" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -16237,7 +16285,7 @@
         <v>706</v>
       </c>
       <c r="E703" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -16254,7 +16302,7 @@
         <v>707</v>
       </c>
       <c r="E704" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -16271,7 +16319,7 @@
         <v>708</v>
       </c>
       <c r="E705" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -16288,7 +16336,7 @@
         <v>709</v>
       </c>
       <c r="E706" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -16305,7 +16353,7 @@
         <v>710</v>
       </c>
       <c r="E707" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -16322,7 +16370,7 @@
         <v>711</v>
       </c>
       <c r="E708" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -16339,7 +16387,7 @@
         <v>712</v>
       </c>
       <c r="E709" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -16356,7 +16404,7 @@
         <v>713</v>
       </c>
       <c r="E710" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -16373,7 +16421,7 @@
         <v>714</v>
       </c>
       <c r="E711" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -16390,7 +16438,7 @@
         <v>715</v>
       </c>
       <c r="E712" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -16407,7 +16455,7 @@
         <v>716</v>
       </c>
       <c r="E713" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -16424,7 +16472,7 @@
         <v>717</v>
       </c>
       <c r="E714" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -16441,7 +16489,7 @@
         <v>718</v>
       </c>
       <c r="E715" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -16458,7 +16506,7 @@
         <v>719</v>
       </c>
       <c r="E716" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -16475,7 +16523,7 @@
         <v>720</v>
       </c>
       <c r="E717" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -16492,7 +16540,7 @@
         <v>721</v>
       </c>
       <c r="E718" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -16509,7 +16557,7 @@
         <v>722</v>
       </c>
       <c r="E719" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -16526,7 +16574,7 @@
         <v>723</v>
       </c>
       <c r="E720" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -16543,7 +16591,7 @@
         <v>724</v>
       </c>
       <c r="E721" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -16560,7 +16608,7 @@
         <v>725</v>
       </c>
       <c r="E722" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -16577,7 +16625,7 @@
         <v>726</v>
       </c>
       <c r="E723" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -16594,7 +16642,7 @@
         <v>727</v>
       </c>
       <c r="E724" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -16611,7 +16659,7 @@
         <v>728</v>
       </c>
       <c r="E725" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -16628,7 +16676,7 @@
         <v>729</v>
       </c>
       <c r="E726" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -16645,7 +16693,7 @@
         <v>730</v>
       </c>
       <c r="E727" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -16662,7 +16710,7 @@
         <v>731</v>
       </c>
       <c r="E728" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -16679,7 +16727,7 @@
         <v>732</v>
       </c>
       <c r="E729" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -16696,7 +16744,7 @@
         <v>733</v>
       </c>
       <c r="E730" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -16713,7 +16761,7 @@
         <v>734</v>
       </c>
       <c r="E731" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -16730,7 +16778,7 @@
         <v>735</v>
       </c>
       <c r="E732" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -16747,7 +16795,7 @@
         <v>736</v>
       </c>
       <c r="E733" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -16764,7 +16812,7 @@
         <v>737</v>
       </c>
       <c r="E734" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -16781,7 +16829,7 @@
         <v>738</v>
       </c>
       <c r="E735" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -16798,7 +16846,7 @@
         <v>739</v>
       </c>
       <c r="E736" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -16815,7 +16863,7 @@
         <v>740</v>
       </c>
       <c r="E737" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -16832,7 +16880,7 @@
         <v>741</v>
       </c>
       <c r="E738" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -16849,7 +16897,7 @@
         <v>742</v>
       </c>
       <c r="E739" t="s">
-        <v>1267</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -16866,7 +16914,7 @@
         <v>743</v>
       </c>
       <c r="E740" t="s">
-        <v>1268</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -16883,7 +16931,7 @@
         <v>744</v>
       </c>
       <c r="E741" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -16900,7 +16948,7 @@
         <v>745</v>
       </c>
       <c r="E742" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -16917,7 +16965,7 @@
         <v>746</v>
       </c>
       <c r="E743" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -16934,7 +16982,7 @@
         <v>747</v>
       </c>
       <c r="E744" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -16951,7 +16999,7 @@
         <v>748</v>
       </c>
       <c r="E745" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -16968,7 +17016,7 @@
         <v>749</v>
       </c>
       <c r="E746" t="s">
-        <v>1250</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -16985,7 +17033,7 @@
         <v>750</v>
       </c>
       <c r="E747" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -17002,7 +17050,7 @@
         <v>751</v>
       </c>
       <c r="E748" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -17019,7 +17067,7 @@
         <v>752</v>
       </c>
       <c r="E749" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -17036,7 +17084,7 @@
         <v>753</v>
       </c>
       <c r="E750" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -17053,7 +17101,7 @@
         <v>754</v>
       </c>
       <c r="E751" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -17070,7 +17118,7 @@
         <v>755</v>
       </c>
       <c r="E752" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -17087,7 +17135,7 @@
         <v>756</v>
       </c>
       <c r="E753" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -17104,7 +17152,7 @@
         <v>757</v>
       </c>
       <c r="E754" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="755" spans="1:5">
@@ -17121,7 +17169,7 @@
         <v>758</v>
       </c>
       <c r="E755" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -17138,7 +17186,7 @@
         <v>759</v>
       </c>
       <c r="E756" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -17155,7 +17203,7 @@
         <v>760</v>
       </c>
       <c r="E757" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -17172,7 +17220,7 @@
         <v>761</v>
       </c>
       <c r="E758" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="759" spans="1:5">
@@ -17189,7 +17237,7 @@
         <v>762</v>
       </c>
       <c r="E759" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -17206,7 +17254,7 @@
         <v>763</v>
       </c>
       <c r="E760" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -17223,7 +17271,7 @@
         <v>764</v>
       </c>
       <c r="E761" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -17240,7 +17288,7 @@
         <v>765</v>
       </c>
       <c r="E762" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -17257,7 +17305,7 @@
         <v>766</v>
       </c>
       <c r="E763" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -17274,7 +17322,7 @@
         <v>767</v>
       </c>
       <c r="E764" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -17291,7 +17339,7 @@
         <v>768</v>
       </c>
       <c r="E765" t="s">
-        <v>1285</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -17308,7 +17356,7 @@
         <v>769</v>
       </c>
       <c r="E766" t="s">
-        <v>1286</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -17325,7 +17373,7 @@
         <v>770</v>
       </c>
       <c r="E767" t="s">
-        <v>1287</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -17342,7 +17390,7 @@
         <v>771</v>
       </c>
       <c r="E768" t="s">
-        <v>1288</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -17359,7 +17407,7 @@
         <v>772</v>
       </c>
       <c r="E769" t="s">
-        <v>1222</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -17376,7 +17424,7 @@
         <v>773</v>
       </c>
       <c r="E770" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -17393,7 +17441,7 @@
         <v>774</v>
       </c>
       <c r="E771" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -17410,7 +17458,7 @@
         <v>775</v>
       </c>
       <c r="E772" t="s">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -17427,7 +17475,7 @@
         <v>776</v>
       </c>
       <c r="E773" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -17444,7 +17492,7 @@
         <v>777</v>
       </c>
       <c r="E774" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -17461,7 +17509,7 @@
         <v>778</v>
       </c>
       <c r="E775" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -17478,7 +17526,7 @@
         <v>779</v>
       </c>
       <c r="E776" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -17495,7 +17543,7 @@
         <v>780</v>
       </c>
       <c r="E777" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -17512,7 +17560,7 @@
         <v>781</v>
       </c>
       <c r="E778" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -17529,7 +17577,7 @@
         <v>782</v>
       </c>
       <c r="E779" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -17546,7 +17594,7 @@
         <v>783</v>
       </c>
       <c r="E780" t="s">
-        <v>1295</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -17563,7 +17611,7 @@
         <v>784</v>
       </c>
       <c r="E781" t="s">
-        <v>1296</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -17580,7 +17628,7 @@
         <v>785</v>
       </c>
       <c r="E782" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -17597,7 +17645,7 @@
         <v>786</v>
       </c>
       <c r="E783" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -17614,7 +17662,7 @@
         <v>787</v>
       </c>
       <c r="E784" t="s">
-        <v>1298</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -17631,7 +17679,7 @@
         <v>788</v>
       </c>
       <c r="E785" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -17648,7 +17696,7 @@
         <v>789</v>
       </c>
       <c r="E786" t="s">
-        <v>1300</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -17665,7 +17713,7 @@
         <v>790</v>
       </c>
       <c r="E787" t="s">
-        <v>1300</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="788" spans="1:5">
@@ -17682,7 +17730,7 @@
         <v>791</v>
       </c>
       <c r="E788" t="s">
-        <v>1300</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -17699,7 +17747,7 @@
         <v>792</v>
       </c>
       <c r="E789" t="s">
-        <v>1301</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -17716,7 +17764,7 @@
         <v>793</v>
       </c>
       <c r="E790" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -17733,7 +17781,7 @@
         <v>794</v>
       </c>
       <c r="E791" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -17750,7 +17798,7 @@
         <v>795</v>
       </c>
       <c r="E792" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -17767,7 +17815,7 @@
         <v>796</v>
       </c>
       <c r="E793" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -17784,7 +17832,7 @@
         <v>797</v>
       </c>
       <c r="E794" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -17801,7 +17849,7 @@
         <v>798</v>
       </c>
       <c r="E795" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -17818,7 +17866,7 @@
         <v>799</v>
       </c>
       <c r="E796" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -17835,7 +17883,7 @@
         <v>800</v>
       </c>
       <c r="E797" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -17852,7 +17900,7 @@
         <v>801</v>
       </c>
       <c r="E798" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -17869,7 +17917,7 @@
         <v>802</v>
       </c>
       <c r="E799" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="800" spans="1:5">
@@ -17886,7 +17934,7 @@
         <v>803</v>
       </c>
       <c r="E800" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -17903,7 +17951,7 @@
         <v>804</v>
       </c>
       <c r="E801" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -17920,7 +17968,7 @@
         <v>805</v>
       </c>
       <c r="E802" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -17937,7 +17985,7 @@
         <v>806</v>
       </c>
       <c r="E803" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -17954,7 +18002,7 @@
         <v>807</v>
       </c>
       <c r="E804" t="s">
-        <v>1303</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -17971,7 +18019,7 @@
         <v>808</v>
       </c>
       <c r="E805" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="806" spans="1:5">
@@ -17988,7 +18036,228 @@
         <v>809</v>
       </c>
       <c r="E806" t="s">
-        <v>1263</v>
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="1">
+        <v>805</v>
+      </c>
+      <c r="B807" t="s">
+        <v>4</v>
+      </c>
+      <c r="C807" t="s">
+        <v>4</v>
+      </c>
+      <c r="D807" t="s">
+        <v>810</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="1">
+        <v>806</v>
+      </c>
+      <c r="B808" t="s">
+        <v>4</v>
+      </c>
+      <c r="C808" t="s">
+        <v>4</v>
+      </c>
+      <c r="D808" t="s">
+        <v>811</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="1">
+        <v>807</v>
+      </c>
+      <c r="B809" t="s">
+        <v>4</v>
+      </c>
+      <c r="C809" t="s">
+        <v>4</v>
+      </c>
+      <c r="D809" t="s">
+        <v>812</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="1">
+        <v>808</v>
+      </c>
+      <c r="B810" t="s">
+        <v>4</v>
+      </c>
+      <c r="C810" t="s">
+        <v>4</v>
+      </c>
+      <c r="D810" t="s">
+        <v>813</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="1">
+        <v>809</v>
+      </c>
+      <c r="B811" t="s">
+        <v>4</v>
+      </c>
+      <c r="C811" t="s">
+        <v>4</v>
+      </c>
+      <c r="D811" t="s">
+        <v>814</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="1">
+        <v>810</v>
+      </c>
+      <c r="B812" t="s">
+        <v>4</v>
+      </c>
+      <c r="C812" t="s">
+        <v>4</v>
+      </c>
+      <c r="D812" t="s">
+        <v>815</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="1">
+        <v>811</v>
+      </c>
+      <c r="B813" t="s">
+        <v>4</v>
+      </c>
+      <c r="C813" t="s">
+        <v>4</v>
+      </c>
+      <c r="D813" t="s">
+        <v>816</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="1">
+        <v>812</v>
+      </c>
+      <c r="B814" t="s">
+        <v>4</v>
+      </c>
+      <c r="C814" t="s">
+        <v>4</v>
+      </c>
+      <c r="D814" t="s">
+        <v>817</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="1">
+        <v>813</v>
+      </c>
+      <c r="B815" t="s">
+        <v>4</v>
+      </c>
+      <c r="C815" t="s">
+        <v>4</v>
+      </c>
+      <c r="D815" t="s">
+        <v>818</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="1">
+        <v>814</v>
+      </c>
+      <c r="B816" t="s">
+        <v>4</v>
+      </c>
+      <c r="C816" t="s">
+        <v>4</v>
+      </c>
+      <c r="D816" t="s">
+        <v>819</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="1">
+        <v>815</v>
+      </c>
+      <c r="B817" t="s">
+        <v>4</v>
+      </c>
+      <c r="C817" t="s">
+        <v>4</v>
+      </c>
+      <c r="D817" t="s">
+        <v>820</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="1">
+        <v>816</v>
+      </c>
+      <c r="B818" t="s">
+        <v>4</v>
+      </c>
+      <c r="C818" t="s">
+        <v>4</v>
+      </c>
+      <c r="D818" t="s">
+        <v>821</v>
+      </c>
+      <c r="E818" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="1">
+        <v>817</v>
+      </c>
+      <c r="B819" t="s">
+        <v>4</v>
+      </c>
+      <c r="C819" t="s">
+        <v>4</v>
+      </c>
+      <c r="D819" t="s">
+        <v>822</v>
+      </c>
+      <c r="E819" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
